--- a/config/optimizer_config.xlsx
+++ b/config/optimizer_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilo/Downloads/SERVAGRO/planificador-turnos/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF61D59-A767-B040-855E-E4349196A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A50A84-2B73-C741-9CE3-AF76FC97E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>Campo</t>
   </si>
@@ -202,18 +202,6 @@
     <t>Puesto 1</t>
   </si>
   <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>Puesto 2</t>
-  </si>
-  <si>
-    <t>P003</t>
-  </si>
-  <si>
-    <t>Puesto 3</t>
-  </si>
-  <si>
     <t>EmpID</t>
   </si>
   <si>
@@ -268,33 +256,6 @@
     <t>E003</t>
   </si>
   <si>
-    <t>E004</t>
-  </si>
-  <si>
-    <t>Cliente Y</t>
-  </si>
-  <si>
-    <t>E005</t>
-  </si>
-  <si>
-    <t>E006</t>
-  </si>
-  <si>
-    <t>E007</t>
-  </si>
-  <si>
-    <t>Cliente Z</t>
-  </si>
-  <si>
-    <t>E008</t>
-  </si>
-  <si>
-    <t>E009</t>
-  </si>
-  <si>
-    <t>E010</t>
-  </si>
-  <si>
     <t>Epifanía</t>
   </si>
   <si>
@@ -383,33 +344,6 @@
   </si>
   <si>
     <t>DayStart</t>
-  </si>
-  <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>Puesto 4</t>
-  </si>
-  <si>
-    <t>E011</t>
-  </si>
-  <si>
-    <t>E012</t>
-  </si>
-  <si>
-    <t>Cliente A</t>
-  </si>
-  <si>
-    <t>E013</t>
-  </si>
-  <si>
-    <t>COMODIN</t>
-  </si>
-  <si>
-    <t>Varios</t>
-  </si>
-  <si>
-    <t>E014</t>
   </si>
 </sst>
 </file>
@@ -818,24 +752,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2">
         <v>0.25</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2">
         <v>0.875</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1066,7 +1000,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1008,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1098,103 +1032,103 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1204,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1252,57 +1186,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1311,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1330,54 +1213,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>1423500</v>
@@ -1386,27 +1269,27 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>1423500</v>
@@ -1415,27 +1298,27 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>1423500</v>
@@ -1444,323 +1327,7 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5">
-        <v>1423500</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6">
-        <v>1423500</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7">
-        <v>1423500</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8">
-        <v>1423500</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9">
-        <v>1423500</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10">
-        <v>1423500</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11">
-        <v>1423500</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12">
-        <v>1423500</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13">
-        <v>1423500</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14">
-        <v>1423500</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15">
-        <v>1423500</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/config/optimizer_config.xlsx
+++ b/config/optimizer_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilo/Downloads/SERVAGRO/planificador-turnos/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A50A84-2B73-C741-9CE3-AF76FC97E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF61D59-A767-B040-855E-E4349196A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
   <si>
     <t>Campo</t>
   </si>
@@ -202,6 +202,18 @@
     <t>Puesto 1</t>
   </si>
   <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>Puesto 2</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>Puesto 3</t>
+  </si>
+  <si>
     <t>EmpID</t>
   </si>
   <si>
@@ -256,6 +268,33 @@
     <t>E003</t>
   </si>
   <si>
+    <t>E004</t>
+  </si>
+  <si>
+    <t>Cliente Y</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>Cliente Z</t>
+  </si>
+  <si>
+    <t>E008</t>
+  </si>
+  <si>
+    <t>E009</t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
     <t>Epifanía</t>
   </si>
   <si>
@@ -344,6 +383,33 @@
   </si>
   <si>
     <t>DayStart</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>Puesto 4</t>
+  </si>
+  <si>
+    <t>E011</t>
+  </si>
+  <si>
+    <t>E012</t>
+  </si>
+  <si>
+    <t>Cliente A</t>
+  </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>COMODIN</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>E014</t>
   </si>
 </sst>
 </file>
@@ -752,24 +818,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2">
         <v>0.25</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2">
         <v>0.875</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1000,7 +1066,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1074,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,103 +1098,103 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1138,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1186,6 +1252,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1194,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,54 +1330,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>1423500</v>
@@ -1269,27 +1386,27 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>1423500</v>
@@ -1298,27 +1415,27 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>1423500</v>
@@ -1327,7 +1444,323 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5">
+        <v>1423500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <v>1423500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>1423500</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8">
+        <v>1423500</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9">
+        <v>1423500</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10">
+        <v>1423500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11">
+        <v>1423500</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12">
+        <v>1423500</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13">
+        <v>1423500</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14">
+        <v>1423500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15">
+        <v>1423500</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/config/optimizer_config.xlsx
+++ b/config/optimizer_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilo/Downloads/SERVAGRO/planificador-turnos/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF61D59-A767-B040-855E-E4349196A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE1DA83-1303-B244-9606-91C6E25471E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="135">
   <si>
     <t>Campo</t>
   </si>
@@ -100,316 +100,334 @@
     <t>Inicio turno nocturno (HH:MM)</t>
   </si>
   <si>
+    <t>SundayThreshold</t>
+  </si>
+  <si>
+    <t>Umbral de domingos para RF</t>
+  </si>
+  <si>
+    <t>MaxPostsPerComodin</t>
+  </si>
+  <si>
+    <t>Máximo de puestos por comodín</t>
+  </si>
+  <si>
+    <t>UseLexicographic</t>
+  </si>
+  <si>
+    <t>Si se usa prioridad lexicográfica (TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>w_HE</t>
+  </si>
+  <si>
+    <t>Peso HE (sólo si se usa esquema de pesos)</t>
+  </si>
+  <si>
+    <t>w_RF</t>
+  </si>
+  <si>
+    <t>Peso RF</t>
+  </si>
+  <si>
+    <t>w_RN</t>
+  </si>
+  <si>
+    <t>Peso RN</t>
+  </si>
+  <si>
+    <t>w_BASE</t>
+  </si>
+  <si>
+    <t>Peso costo base salarial</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>Año Nuevo</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>Jueves Santo</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>Viernes Santo</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>PostID</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>RequiredCoverage</t>
+  </si>
+  <si>
+    <t>AllowDayShift</t>
+  </si>
+  <si>
+    <t>AllowNightShift</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>Puesto 1</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>Puesto 2</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>Puesto 3</t>
+  </si>
+  <si>
+    <t>EmpID</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>AsignadoPostID</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>SalarioContrato</t>
+  </si>
+  <si>
+    <t>DisponibleDesde</t>
+  </si>
+  <si>
+    <t>DisponibleHasta</t>
+  </si>
+  <si>
+    <t>MaxPostsIfComodin</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>FIJO</t>
+  </si>
+  <si>
+    <t>Empresa A</t>
+  </si>
+  <si>
+    <t>Vigilante</t>
+  </si>
+  <si>
+    <t>Cliente X</t>
+  </si>
+  <si>
+    <t>9999-12-31</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>E004</t>
+  </si>
+  <si>
+    <t>Cliente Y</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>Cliente Z</t>
+  </si>
+  <si>
+    <t>E008</t>
+  </si>
+  <si>
+    <t>E009</t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
+    <t>Epifanía</t>
+  </si>
+  <si>
+    <t>Día de San José</t>
+  </si>
+  <si>
+    <t>Día del trabajo</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>Ascensión de Jesús</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>Corpus Christi</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>Sagrado Corazón de Jesús</t>
+  </si>
+  <si>
+    <t>San Pedro y San Pablo</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>Día de la independencia</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>Batalla de Boyacá</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>Asunción de la Virgen</t>
+  </si>
+  <si>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>Día de la Diversidad Étnica y Cultural</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>Todos los Santos</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>Independencia de Cartagena</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>Inmaculada Concepción</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>Navidad</t>
+  </si>
+  <si>
+    <t>Fin horas nocturnas (HH:MM)</t>
+  </si>
+  <si>
+    <t>Inicio horas nocturnas (HH:MM)</t>
+  </si>
+  <si>
+    <t>NightStart</t>
+  </si>
+  <si>
+    <t>DayStart</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>Puesto 4</t>
+  </si>
+  <si>
+    <t>E011</t>
+  </si>
+  <si>
+    <t>E012</t>
+  </si>
+  <si>
+    <t>Cliente A</t>
+  </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>COMODIN</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>E015</t>
+  </si>
+  <si>
+    <t>Cliente B</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>E016</t>
+  </si>
+  <si>
+    <t>E017</t>
+  </si>
+  <si>
+    <t>Puesto 5</t>
+  </si>
+  <si>
     <t>MinRestHours</t>
   </si>
   <si>
     <t>Descanso mínimo entre turnos (horas)</t>
-  </si>
-  <si>
-    <t>SundayThreshold</t>
-  </si>
-  <si>
-    <t>Umbral de domingos para RF</t>
-  </si>
-  <si>
-    <t>MaxPostsPerComodin</t>
-  </si>
-  <si>
-    <t>Máximo de puestos por comodín</t>
-  </si>
-  <si>
-    <t>UseLexicographic</t>
-  </si>
-  <si>
-    <t>Si se usa prioridad lexicográfica (TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>w_HE</t>
-  </si>
-  <si>
-    <t>Peso HE (sólo si se usa esquema de pesos)</t>
-  </si>
-  <si>
-    <t>w_RF</t>
-  </si>
-  <si>
-    <t>Peso RF</t>
-  </si>
-  <si>
-    <t>w_RN</t>
-  </si>
-  <si>
-    <t>Peso RN</t>
-  </si>
-  <si>
-    <t>w_BASE</t>
-  </si>
-  <si>
-    <t>Peso costo base salarial</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>Año Nuevo</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>Jueves Santo</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>Viernes Santo</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>PostID</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>RequiredCoverage</t>
-  </si>
-  <si>
-    <t>AllowDayShift</t>
-  </si>
-  <si>
-    <t>AllowNightShift</t>
-  </si>
-  <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>Puesto 1</t>
-  </si>
-  <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>Puesto 2</t>
-  </si>
-  <si>
-    <t>P003</t>
-  </si>
-  <si>
-    <t>Puesto 3</t>
-  </si>
-  <si>
-    <t>EmpID</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>AsignadoPostID</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Cargo</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>SalarioContrato</t>
-  </si>
-  <si>
-    <t>DisponibleDesde</t>
-  </si>
-  <si>
-    <t>DisponibleHasta</t>
-  </si>
-  <si>
-    <t>MaxPostsIfComodin</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>FIJO</t>
-  </si>
-  <si>
-    <t>Empresa A</t>
-  </si>
-  <si>
-    <t>Vigilante</t>
-  </si>
-  <si>
-    <t>Cliente X</t>
-  </si>
-  <si>
-    <t>9999-12-31</t>
-  </si>
-  <si>
-    <t>E002</t>
-  </si>
-  <si>
-    <t>E003</t>
-  </si>
-  <si>
-    <t>E004</t>
-  </si>
-  <si>
-    <t>Cliente Y</t>
-  </si>
-  <si>
-    <t>E005</t>
-  </si>
-  <si>
-    <t>E006</t>
-  </si>
-  <si>
-    <t>E007</t>
-  </si>
-  <si>
-    <t>Cliente Z</t>
-  </si>
-  <si>
-    <t>E008</t>
-  </si>
-  <si>
-    <t>E009</t>
-  </si>
-  <si>
-    <t>E010</t>
-  </si>
-  <si>
-    <t>Epifanía</t>
-  </si>
-  <si>
-    <t>Día de San José</t>
-  </si>
-  <si>
-    <t>Día del trabajo</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>Ascensión de Jesús</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>Corpus Christi</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>Sagrado Corazón de Jesús</t>
-  </si>
-  <si>
-    <t>San Pedro y San Pablo</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>Día de la independencia</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>Batalla de Boyacá</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>Asunción de la Virgen</t>
-  </si>
-  <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t>Día de la Diversidad Étnica y Cultural</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>Todos los Santos</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>Independencia de Cartagena</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>Inmaculada Concepción</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>Navidad</t>
-  </si>
-  <si>
-    <t>Fin horas nocturnas (HH:MM)</t>
-  </si>
-  <si>
-    <t>Inicio horas nocturnas (HH:MM)</t>
-  </si>
-  <si>
-    <t>NightStart</t>
-  </si>
-  <si>
-    <t>DayStart</t>
-  </si>
-  <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>Puesto 4</t>
-  </si>
-  <si>
-    <t>E011</t>
-  </si>
-  <si>
-    <t>E012</t>
-  </si>
-  <si>
-    <t>Cliente A</t>
-  </si>
-  <si>
-    <t>E013</t>
-  </si>
-  <si>
-    <t>COMODIN</t>
-  </si>
-  <si>
-    <t>Varios</t>
-  </si>
-  <si>
-    <t>E014</t>
   </si>
 </sst>
 </file>
@@ -772,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -818,24 +836,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2">
         <v>0.25</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2">
         <v>0.875</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -953,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -961,68 +979,68 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1047,154 +1065,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
         <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1204,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1220,27 +1238,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1254,10 +1272,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1271,10 +1289,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1288,10 +1306,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1300,6 +1318,23 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
@@ -1311,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1330,437 +1365,527 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
       <c r="G2">
         <v>1423500</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
       </c>
       <c r="G3">
         <v>1423500</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
       </c>
       <c r="G4">
         <v>1423500</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>1423500</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>1423500</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>1423500</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8">
         <v>1423500</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <v>1423500</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10">
         <v>1423500</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G11">
         <v>1423500</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
         <v>122</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
       </c>
       <c r="G12">
         <v>1423500</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13">
         <v>1423500</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14">
         <v>1423500</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
         <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>127</v>
       </c>
       <c r="G15">
         <v>1423500</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>1423500</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17">
+        <v>1423500</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18">
+        <v>1423500</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/config/optimizer_config.xlsx
+++ b/config/optimizer_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilo/Downloads/SERVAGRO/planificador-turnos/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE1DA83-1303-B244-9606-91C6E25471E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3712DA0-8C9D-134D-ABD1-5102E4EA5E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1348,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1856,7 +1856,7 @@
         <v>76</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
